--- a/设备信息库.xlsx
+++ b/设备信息库.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="设备信息表" sheetId="2" r:id="rId2"/>
     <sheet name="命令行" sheetId="3" r:id="rId3"/>
+    <sheet name="数据处理正则表达式" sheetId="4" r:id="rId4"/>
+    <sheet name="web规划示意图" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="105">
   <si>
     <t>登录帐号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,30 +271,135 @@
     <t>vanke@Admin</t>
   </si>
   <si>
+    <t>huawei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huawei@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display cu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.56.104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display ip interface bri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display interface brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0/0/0;G0/0/1;G0/0/2;G0/0/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display interface %s0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display interface %s1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行命令 %s0表示第一个参数，%s1表示第二个以此类推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化参数，通过";"区分，第一个为0，第二个为1，以此类推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0/0/0;G0/0/1;G0/0/2;G0/0/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.56.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.56.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display cu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Rx Power\(dBM\)                 :(.*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否首列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Tx Power\(dBM\)                 :(.*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(GigabitEthernet.*) transceiver information:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>192.168.56.100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>192.168.56.101</t>
-  </si>
-  <si>
-    <t>huawei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huawei@123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Telnet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display cu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -300,63 +407,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.56.104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display ip interface bri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display interface brief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G0/0/0;G0/0/1;G0/0/2;G0/0/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display interface %s0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display interface %s1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行命令 %s0表示第一个参数，%s1表示第二个以此类推</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变化参数，通过";"区分，第一个为0，第二个为1，以此类推</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G0/0/0;G0/0/1;G0/0/2;G0/0/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.56.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.56.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display cu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh/telnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个输入，excel表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够随机对应任意列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择设备--&gt;选择命令--&gt;直接执行获取结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择设备--&gt;选择命令--&gt;匹配列表--&gt;执行获取结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结果库--&gt;匹配列表--&gt;获取结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -432,12 +543,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -453,6 +616,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1078,7 +1257,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H10"/>
+      <selection activeCell="G12" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1111,7 +1290,7 @@
         <v>42</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>43</v>
@@ -1135,10 +1314,10 @@
         <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1159,10 +1338,10 @@
         <v>23</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1183,10 +1362,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1210,7 +1389,7 @@
         <v>48</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1234,27 +1413,27 @@
         <v>49</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="F7" s="6">
         <v>23</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>44</v>
@@ -1262,13 +1441,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>40</v>
@@ -1277,7 +1456,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>44</v>
@@ -1285,13 +1464,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>40</v>
@@ -1300,7 +1479,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>44</v>
@@ -1308,13 +1487,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>40</v>
@@ -1323,7 +1502,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>44</v>
@@ -1331,13 +1510,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>40</v>
@@ -1346,21 +1525,21 @@
         <v>23</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>40</v>
@@ -1369,10 +1548,10 @@
         <v>23</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1394,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1405,12 +1584,12 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
@@ -1418,7 +1597,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1438,17 +1617,11 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
       <c r="D7" t="s">
         <v>29</v>
       </c>
@@ -1460,7 +1633,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -1472,11 +1645,17 @@
       </c>
     </row>
     <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
@@ -1523,22 +1702,22 @@
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1546,4 +1725,171 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="57.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5">
+      <c r="B4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="10"/>
+      <c r="C6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="10"/>
+      <c r="C7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="11"/>
+      <c r="C8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>